--- a/testfile/track arrow file.xlsx
+++ b/testfile/track arrow file.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\FreeCircos\testfile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EC1EA1-D3D9-4500-8D43-51B58D00F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4390" yWindow="-20" windowWidth="13410" windowHeight="5880"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,6 +257,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -298,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,9 +340,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,6 +392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,22 +584,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" customWidth="1"/>
+    <col min="3" max="3" width="12.9296875" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -570,7 +613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>100227527</v>
       </c>
@@ -584,7 +627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>19929263</v>
       </c>
@@ -598,7 +641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>136501485</v>
       </c>
@@ -612,7 +655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>50526134</v>
       </c>
@@ -626,7 +669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>40618813</v>
       </c>
@@ -640,7 +683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>69743304</v>
       </c>
@@ -654,7 +697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2185159</v>
       </c>
@@ -668,7 +711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>174867675</v>
       </c>
@@ -682,7 +725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>113280317</v>
       </c>
@@ -696,7 +739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>113847499</v>
       </c>
@@ -710,7 +753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>637305</v>
       </c>
@@ -724,7 +767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>9783258</v>
       </c>
@@ -738,7 +781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>3443702</v>
       </c>
@@ -752,7 +795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>39408473</v>
       </c>
@@ -766,7 +809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>99916788</v>
       </c>
@@ -780,7 +823,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>202317830</v>
       </c>
@@ -794,7 +837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>37783177</v>
       </c>
@@ -808,7 +851,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>174128552</v>
       </c>
@@ -822,7 +865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>98272402</v>
       </c>
@@ -836,7 +879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>85008133</v>
       </c>
@@ -850,7 +893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>30301729</v>
       </c>
@@ -864,7 +907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>28363241</v>
       </c>
@@ -879,7 +922,7 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>8008867</v>
       </c>
@@ -893,7 +936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>82167585</v>
       </c>
@@ -907,7 +950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>38058757</v>
       </c>
@@ -921,7 +964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>22561642</v>
       </c>
@@ -935,7 +978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>28995234</v>
       </c>
@@ -949,7 +992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>80676245</v>
       </c>
@@ -963,7 +1006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>143072604</v>
       </c>
@@ -977,7 +1020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>165171104</v>
       </c>
@@ -991,7 +1034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>46125686</v>
       </c>
@@ -1005,7 +1048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>157180944</v>
       </c>
@@ -1019,7 +1062,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>103989946</v>
       </c>
@@ -1033,7 +1076,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>144261480</v>
       </c>
@@ -1047,7 +1090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35451901</v>
       </c>
@@ -1061,7 +1104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>20002366</v>
       </c>
@@ -1075,7 +1118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>119000584</v>
       </c>
@@ -1089,7 +1132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>47428683</v>
       </c>
@@ -1103,7 +1146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>11034420</v>
       </c>
@@ -1117,7 +1160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>10857917</v>
       </c>
@@ -1131,7 +1174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>55689542</v>
       </c>
@@ -1145,7 +1188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>1392905</v>
       </c>
@@ -1159,7 +1202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>28521337</v>
       </c>
@@ -1173,7 +1216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>27714470</v>
       </c>
@@ -1187,7 +1230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>94843084</v>
       </c>
@@ -1201,7 +1244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>90645250</v>
       </c>
@@ -1214,9 +1257,6 @@
       <c r="D47" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1226,12 +1266,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1239,12 +1279,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
